--- a/inst/extdata/Exemplar_Table.xlsx
+++ b/inst/extdata/Exemplar_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/SEAPSUTWorkflow/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Dropbox/Fellowship 1960-2015 PFU database/Database plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677A4E8-0ED6-E74B-A897-8EBD3274EAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C2A668-EED4-6743-B21F-3C1055EF4A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exemplar_table" sheetId="5" r:id="rId1"/>
@@ -23,14 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exemplar_table!$A$1:$BA$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1360,9 +1352,6 @@
     <t>Data for Eritrea are available from 1992. Prior to that, they are included in Ethiopia</t>
   </si>
   <si>
-    <t>Former Yugoslavia (Split 27/04/1992). Before 1990, includes Bosnia and Herzegovina; Croatia; Republic of North Macedonia (North Macedonia); Kosovo; Montenegro; Slovenia and Serbia.</t>
-  </si>
-  <si>
     <t>Data for Mongolia are available starting in 1985. Prior to that, they are included in Other Asia.</t>
   </si>
   <si>
@@ -1396,21 +1385,6 @@
     <t xml:space="preserve">Hi Matt, here's my proposed code structure! Apologies if it is incorrect, my R skills are very much a work in progress.  </t>
   </si>
   <si>
-    <t>Rank_TFC_2017i</t>
-  </si>
-  <si>
-    <t>Region_Code</t>
-  </si>
-  <si>
-    <t>ROW_Code</t>
-  </si>
-  <si>
-    <t>Countries_or_Group</t>
-  </si>
-  <si>
-    <t>Exemplar_Country</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aim: To allocate the country names/3-letter ISO codes to either: 1) a ROW region, or 2) the appropriate country code for a particular year as defined in the IEA WEEB 2019 database documentation. </t>
   </si>
   <si>
@@ -1423,16 +1397,34 @@
     <t>Restofworld</t>
   </si>
   <si>
-    <t>Former Soviet Union (Split 26 Novemeber 1991) Before 1990, includes Armenia; Azerbaijan; Belarus; Estonia; Georgia; Kazakhstan; Kyrgyzstan; Latvia; Lithuania; Republic of Moldova; Russian Federation; Tajikistan; Turkmenistan; Ukraine and Uzbekistan.</t>
-  </si>
-  <si>
     <t>Former Czech and Slovak Federative Republic (01 January 1993)</t>
   </si>
   <si>
     <t>South Sudan and Sudan (Split 09 July 2011) Data for South Sudan are available from 2012. Prior to 2012, they are included in Sudan.</t>
   </si>
   <si>
-    <t>Individual, Restofworld, FSU, YGS</t>
+    <t>Former Soviet Union (Split 26 Novemeber 1991)  Data before 1990, includes Armenia; Azerbaijan; Belarus; Estonia; Georgia; Kazakhstan; Kyrgyzstan; Latvia; Lithuania; Republic of Moldova; Russian Federation; Tajikistan; Turkmenistan; Ukraine and Uzbekistan.</t>
+  </si>
+  <si>
+    <t>Former Yugoslavia (Split 27/04/1992). Data before 1990, includes Bosnia and Herzegovina; Croatia; Republic of North Macedonia (North Macedonia); Kosovo; Montenegro; Slovenia and Serbia.</t>
+  </si>
+  <si>
+    <t>ROW.code</t>
+  </si>
+  <si>
+    <t>Exemplar.country</t>
+  </si>
+  <si>
+    <t>Country.name</t>
+  </si>
+  <si>
+    <t>Region.code</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>Rank.TFC.2017i</t>
   </si>
 </sst>
 </file>
@@ -3108,9 +3100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3126,22 +3118,22 @@
   <sheetData>
     <row r="1" spans="1:53" s="24" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G1" s="14">
         <v>1971</v>
@@ -3290,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>390</v>
@@ -3302,7 +3294,7 @@
         <v>265</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
@@ -3451,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>391</v>
@@ -3463,7 +3455,7 @@
         <v>249</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>250</v>
@@ -3612,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>390</v>
@@ -3624,7 +3616,7 @@
         <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>103</v>
@@ -3785,7 +3777,7 @@
         <v>198</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>290</v>
@@ -3934,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>390</v>
@@ -3946,7 +3938,7 @@
         <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>118</v>
@@ -4095,7 +4087,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>391</v>
@@ -4107,7 +4099,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
@@ -4256,7 +4248,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>392</v>
@@ -4268,7 +4260,7 @@
         <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>85</v>
@@ -4417,7 +4409,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>391</v>
@@ -4429,7 +4421,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
@@ -4578,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>390</v>
@@ -4590,7 +4582,7 @@
         <v>272</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>106</v>
@@ -4739,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>390</v>
@@ -4751,7 +4743,7 @@
         <v>273</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>126</v>
@@ -4900,7 +4892,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>390</v>
@@ -4912,7 +4904,7 @@
         <v>104</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>105</v>
@@ -5061,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>392</v>
@@ -5073,7 +5065,7 @@
         <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>79</v>
@@ -5222,7 +5214,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>390</v>
@@ -5234,7 +5226,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>201</v>
@@ -5383,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>391</v>
@@ -5395,7 +5387,7 @@
         <v>174</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>175</v>
@@ -5544,7 +5536,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>392</v>
@@ -5556,7 +5548,7 @@
         <v>247</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>248</v>
@@ -5705,7 +5697,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>391</v>
@@ -5717,7 +5709,7 @@
         <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>149</v>
@@ -5866,7 +5858,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>392</v>
@@ -5878,7 +5870,7 @@
         <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>114</v>
@@ -6027,7 +6019,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>390</v>
@@ -6039,7 +6031,7 @@
         <v>239</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>240</v>
@@ -6188,7 +6180,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>390</v>
@@ -6200,7 +6192,7 @@
         <v>231</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>232</v>
@@ -6349,7 +6341,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>390</v>
@@ -6361,7 +6353,7 @@
         <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>181</v>
@@ -6510,7 +6502,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>392</v>
@@ -6522,7 +6514,7 @@
         <v>213</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>214</v>
@@ -6671,19 +6663,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>393</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -6832,7 +6824,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>392</v>
@@ -6844,7 +6836,7 @@
         <v>190</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>191</v>
@@ -6993,7 +6985,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>390</v>
@@ -7005,7 +6997,7 @@
         <v>278</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>227</v>
@@ -7154,7 +7146,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>389</v>
@@ -7166,7 +7158,7 @@
         <v>211</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>212</v>
@@ -7315,7 +7307,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>389</v>
@@ -7327,7 +7319,7 @@
         <v>337</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>366</v>
@@ -7476,7 +7468,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>390</v>
@@ -7488,7 +7480,7 @@
         <v>256</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>257</v>
@@ -7637,7 +7629,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>391</v>
@@ -7649,7 +7641,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
@@ -7798,7 +7790,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>389</v>
@@ -7810,7 +7802,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>67</v>
@@ -7959,7 +7951,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>390</v>
@@ -7971,7 +7963,7 @@
         <v>142</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>143</v>
@@ -8120,7 +8112,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>392</v>
@@ -8132,7 +8124,7 @@
         <v>165</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>166</v>
@@ -8281,7 +8273,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>390</v>
@@ -8293,7 +8285,7 @@
         <v>245</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>246</v>
@@ -8454,7 +8446,7 @@
         <v>243</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>290</v>
@@ -8603,7 +8595,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>392</v>
@@ -8615,7 +8607,7 @@
         <v>22</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>23</v>
@@ -8776,7 +8768,7 @@
         <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>290</v>
@@ -8925,7 +8917,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>389</v>
@@ -8937,7 +8929,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>75</v>
@@ -9086,7 +9078,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>389</v>
@@ -9098,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -9247,7 +9239,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>392</v>
@@ -9259,7 +9251,7 @@
         <v>221</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>222</v>
@@ -9408,7 +9400,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>390</v>
@@ -9420,7 +9412,7 @@
         <v>188</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>189</v>
@@ -9569,7 +9561,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>390</v>
@@ -9581,7 +9573,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>19</v>
@@ -9730,7 +9722,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>391</v>
@@ -9742,7 +9734,7 @@
         <v>280</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>255</v>
@@ -9891,7 +9883,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>391</v>
@@ -9903,7 +9895,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>47</v>
@@ -10052,7 +10044,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>392</v>
@@ -10064,7 +10056,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>13</v>
@@ -10213,7 +10205,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>392</v>
@@ -10225,7 +10217,7 @@
         <v>58</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>59</v>
@@ -10374,7 +10366,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>391</v>
@@ -10386,7 +10378,7 @@
         <v>43</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>44</v>
@@ -10535,7 +10527,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>392</v>
@@ -10547,7 +10539,7 @@
         <v>76</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>77</v>
@@ -10696,7 +10688,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>389</v>
@@ -10708,7 +10700,7 @@
         <v>270</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>48</v>
@@ -10857,7 +10849,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>390</v>
@@ -10869,7 +10861,7 @@
         <v>206</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>207</v>
@@ -11018,7 +11010,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>392</v>
@@ -11030,7 +11022,7 @@
         <v>196</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>197</v>
@@ -11191,7 +11183,7 @@
         <v>253</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>290</v>
@@ -11340,7 +11332,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>390</v>
@@ -11352,7 +11344,7 @@
         <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>179</v>
@@ -11501,7 +11493,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>392</v>
@@ -11513,7 +11505,7 @@
         <v>176</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>177</v>
@@ -11662,7 +11654,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>390</v>
@@ -11674,7 +11666,7 @@
         <v>107</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>108</v>
@@ -11823,7 +11815,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>392</v>
@@ -11835,7 +11827,7 @@
         <v>98</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>99</v>
@@ -11984,7 +11976,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>390</v>
@@ -11996,7 +11988,7 @@
         <v>159</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>160</v>
@@ -12145,7 +12137,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>390</v>
@@ -12157,7 +12149,7 @@
         <v>127</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>128</v>
@@ -12306,7 +12298,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>391</v>
@@ -12318,7 +12310,7 @@
         <v>186</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>187</v>
@@ -12479,7 +12471,7 @@
         <v>20</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>290</v>
@@ -12628,7 +12620,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>392</v>
@@ -12640,7 +12632,7 @@
         <v>223</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>224</v>
@@ -12789,7 +12781,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>390</v>
@@ -12801,7 +12793,7 @@
         <v>194</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>195</v>
@@ -12962,7 +12954,7 @@
         <v>241</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>290</v>
@@ -13111,7 +13103,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>389</v>
@@ -13123,7 +13115,7 @@
         <v>279</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>230</v>
@@ -13272,7 +13264,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>389</v>
@@ -13284,7 +13276,7 @@
         <v>123</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>124</v>
@@ -13433,7 +13425,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>392</v>
@@ -13445,7 +13437,7 @@
         <v>90</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>91</v>
@@ -13594,7 +13586,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>392</v>
@@ -13606,7 +13598,7 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>193</v>
@@ -13755,7 +13747,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>389</v>
@@ -13767,7 +13759,7 @@
         <v>155</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>156</v>
@@ -13916,7 +13908,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>390</v>
@@ -13928,7 +13920,7 @@
         <v>111</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>112</v>
@@ -14077,19 +14069,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>393</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>169</v>
@@ -14238,7 +14230,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>390</v>
@@ -14250,7 +14242,7 @@
         <v>339</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>368</v>
@@ -14399,7 +14391,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>392</v>
@@ -14411,7 +14403,7 @@
         <v>60</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>61</v>
@@ -14560,7 +14552,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>390</v>
@@ -14572,7 +14564,7 @@
         <v>163</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>164</v>
@@ -14721,7 +14713,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>389</v>
@@ -14733,7 +14725,7 @@
         <v>217</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>218</v>
@@ -14882,7 +14874,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>391</v>
@@ -14894,7 +14886,7 @@
         <v>64</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>65</v>
@@ -15043,7 +15035,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>391</v>
@@ -15055,7 +15047,7 @@
         <v>235</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>236</v>
@@ -15204,7 +15196,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>391</v>
@@ -15216,7 +15208,7 @@
         <v>92</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>93</v>
@@ -15365,7 +15357,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>392</v>
@@ -15377,7 +15369,7 @@
         <v>276</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>208</v>
@@ -15526,7 +15518,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>392</v>
@@ -15538,7 +15530,7 @@
         <v>109</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>110</v>
@@ -15687,7 +15679,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>390</v>
@@ -15699,7 +15691,7 @@
         <v>215</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>216</v>
@@ -15848,7 +15840,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>392</v>
@@ -15860,7 +15852,7 @@
         <v>35</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -16009,7 +16001,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>389</v>
@@ -16021,7 +16013,7 @@
         <v>262</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>263</v>
@@ -16170,7 +16162,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>389</v>
@@ -16182,7 +16174,7 @@
         <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>5</v>
@@ -16331,7 +16323,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>389</v>
@@ -16343,7 +16335,7 @@
         <v>260</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>261</v>
@@ -16504,7 +16496,7 @@
         <v>204</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>289</v>
@@ -16653,7 +16645,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>389</v>
@@ -16665,7 +16657,7 @@
         <v>345</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>364</v>
@@ -16826,7 +16818,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>290</v>
@@ -16975,7 +16967,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>389</v>
@@ -16987,7 +16979,7 @@
         <v>136</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>135</v>
@@ -17136,7 +17128,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>389</v>
@@ -17148,7 +17140,7 @@
         <v>237</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>238</v>
@@ -17297,7 +17289,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>391</v>
@@ -17309,7 +17301,7 @@
         <v>54</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>55</v>
@@ -17458,7 +17450,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>391</v>
@@ -17470,7 +17462,7 @@
         <v>264</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -17619,7 +17611,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>389</v>
@@ -17631,7 +17623,7 @@
         <v>39</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>40</v>
@@ -17792,7 +17784,7 @@
         <v>52</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>289</v>
@@ -17941,7 +17933,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>389</v>
@@ -17953,7 +17945,7 @@
         <v>267</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>51</v>
@@ -18102,7 +18094,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>389</v>
@@ -18114,7 +18106,7 @@
         <v>86</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>87</v>
@@ -18263,7 +18255,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>390</v>
@@ -18275,7 +18267,7 @@
         <v>37</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>368</v>
@@ -18424,7 +18416,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>390</v>
@@ -18436,7 +18428,7 @@
         <v>119</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>120</v>
@@ -18597,7 +18589,7 @@
         <v>137</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>290</v>
@@ -18746,7 +18738,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>391</v>
@@ -18758,7 +18750,7 @@
         <v>184</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>185</v>
@@ -18907,7 +18899,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>390</v>
@@ -18919,7 +18911,7 @@
         <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>17</v>
@@ -19068,7 +19060,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>391</v>
@@ -19080,7 +19072,7 @@
         <v>62</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>63</v>
@@ -19229,7 +19221,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>390</v>
@@ -19241,7 +19233,7 @@
         <v>269</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>125</v>
@@ -19390,7 +19382,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>389</v>
@@ -19402,7 +19394,7 @@
         <v>157</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>158</v>
@@ -19551,7 +19543,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>390</v>
@@ -19563,7 +19555,7 @@
         <v>133</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>134</v>
@@ -19712,7 +19704,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>390</v>
@@ -19724,7 +19716,7 @@
         <v>225</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>226</v>
@@ -19873,7 +19865,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>391</v>
@@ -19885,7 +19877,7 @@
         <v>96</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>97</v>
@@ -20046,7 +20038,7 @@
         <v>209</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>289</v>
@@ -20195,7 +20187,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>391</v>
@@ -20207,7 +20199,7 @@
         <v>251</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>252</v>
@@ -20356,7 +20348,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>389</v>
@@ -20368,7 +20360,7 @@
         <v>80</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>81</v>
@@ -20529,7 +20521,7 @@
         <v>82</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>290</v>
@@ -20678,7 +20670,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>389</v>
@@ -20690,7 +20682,7 @@
         <v>24</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>25</v>
@@ -20839,7 +20831,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>391</v>
@@ -20851,7 +20843,7 @@
         <v>49</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>50</v>
@@ -21012,7 +21004,7 @@
         <v>131</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>290</v>
@@ -21161,7 +21153,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>392</v>
@@ -21173,7 +21165,7 @@
         <v>139</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>140</v>
@@ -21322,7 +21314,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>391</v>
@@ -21334,7 +21326,7 @@
         <v>182</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>183</v>
@@ -21495,7 +21487,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>289</v>
@@ -21656,7 +21648,7 @@
         <v>129</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>290</v>
@@ -21805,7 +21797,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>390</v>
@@ -21817,7 +21809,7 @@
         <v>151</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>368</v>
@@ -21966,7 +21958,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>391</v>
@@ -21978,7 +21970,7 @@
         <v>338</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G118" s="13" t="s">
         <v>367</v>
@@ -22127,7 +22119,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>391</v>
@@ -22139,7 +22131,7 @@
         <v>94</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>95</v>
@@ -22288,7 +22280,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>389</v>
@@ -22300,7 +22292,7 @@
         <v>202</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>203</v>
@@ -22461,7 +22453,7 @@
         <v>275</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>290</v>
@@ -22610,7 +22602,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>392</v>
@@ -22622,7 +22614,7 @@
         <v>100</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>101</v>
@@ -22771,7 +22763,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>392</v>
@@ -22783,7 +22775,7 @@
         <v>72</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>290</v>
@@ -22932,7 +22924,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>389</v>
@@ -22944,7 +22936,7 @@
         <v>172</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>366</v>
@@ -23105,7 +23097,7 @@
         <v>228</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>290</v>
@@ -23254,7 +23246,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>391</v>
@@ -23266,7 +23258,7 @@
         <v>170</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>171</v>
@@ -23415,7 +23407,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>391</v>
@@ -23427,7 +23419,7 @@
         <v>68</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>69</v>
@@ -23576,7 +23568,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>389</v>
@@ -23588,7 +23580,7 @@
         <v>233</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>234</v>
@@ -23737,7 +23729,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>390</v>
@@ -23749,7 +23741,7 @@
         <v>258</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>259</v>
@@ -23910,7 +23902,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>290</v>
@@ -24059,7 +24051,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>392</v>
@@ -24071,7 +24063,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>1</v>
@@ -24220,7 +24212,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>389</v>
@@ -24232,7 +24224,7 @@
         <v>29</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>366</v>
@@ -24393,7 +24385,7 @@
         <v>271</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>289</v>
@@ -24542,7 +24534,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>389</v>
@@ -24554,7 +24546,7 @@
         <v>266</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>48</v>
@@ -24703,7 +24695,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>391</v>
@@ -24715,7 +24707,7 @@
         <v>115</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>116</v>
@@ -24864,7 +24856,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C136" s="17" t="s">
         <v>389</v>
@@ -24876,7 +24868,7 @@
         <v>161</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>366</v>
@@ -25025,7 +25017,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>390</v>
@@ -25037,7 +25029,7 @@
         <v>344</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>369</v>
@@ -25186,7 +25178,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>390</v>
@@ -25198,7 +25190,7 @@
         <v>56</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>57</v>
@@ -25359,7 +25351,7 @@
         <v>274</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>289</v>
@@ -25508,7 +25500,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C140" s="17" t="s">
         <v>390</v>
@@ -25520,7 +25512,7 @@
         <v>33</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>34</v>
@@ -25669,7 +25661,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C141" s="17" t="s">
         <v>389</v>
@@ -25681,7 +25673,7 @@
         <v>146</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>147</v>
@@ -25842,7 +25834,7 @@
         <v>153</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>289</v>
@@ -25991,7 +25983,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>391</v>
@@ -26003,7 +25995,7 @@
         <v>268</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>167</v>
@@ -26152,7 +26144,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>391</v>
@@ -26164,7 +26156,7 @@
         <v>219</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>367</v>
@@ -26313,7 +26305,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>389</v>
@@ -26325,7 +26317,7 @@
         <v>70</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>75</v>
@@ -26474,7 +26466,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>392</v>
@@ -26486,7 +26478,7 @@
         <v>144</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>145</v>
@@ -26635,7 +26627,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C147" s="18" t="s">
         <v>389</v>
@@ -26647,7 +26639,7 @@
         <v>277</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>218</v>
@@ -26796,7 +26788,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>392</v>
@@ -26808,7 +26800,7 @@
         <v>88</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>89</v>
@@ -26957,7 +26949,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C149" s="17" t="s">
         <v>392</v>
@@ -26969,7 +26961,7 @@
         <v>341</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>365</v>
@@ -27130,7 +27122,7 @@
         <v>335</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>290</v>
@@ -27291,7 +27283,7 @@
         <v>336</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>289</v>
@@ -27469,10 +27461,10 @@
         <v>363</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>370</v>
@@ -29781,7 +29773,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -29808,7 +29800,7 @@
         <v>283</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>405</v>
@@ -29819,7 +29811,7 @@
         <v>406</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>407</v>
@@ -29852,7 +29844,7 @@
         <v>412</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>413</v>
@@ -29896,7 +29888,7 @@
         <v>151</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>420</v>
@@ -29907,7 +29899,7 @@
         <v>153</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>421</v>
@@ -29918,7 +29910,7 @@
         <v>161</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>422</v>
@@ -29951,7 +29943,7 @@
         <v>428</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>429</v>
@@ -29962,7 +29954,7 @@
         <v>219</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>430</v>
@@ -30003,10 +29995,10 @@
     </row>
     <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>439</v>
@@ -30014,10 +30006,10 @@
     </row>
     <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>447</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>448</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>439</v>
@@ -30040,12 +30032,12 @@
   <sheetData>
     <row r="1" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">

--- a/inst/extdata/Exemplar_Table.xlsx
+++ b/inst/extdata/Exemplar_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeke Marshall\Dropbox\Fellowship 1960-2015 PFU database\Database plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Dropbox/Fellowship 1960-2015 PFU database/Database plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDCCF1-EC43-4F26-8FEC-659111F73A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDDC56-3500-9546-894C-9DBB685F4134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="48280" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exemplar_table" sheetId="5" r:id="rId1"/>
@@ -20,22 +20,14 @@
     <sheet name="Proposed Code Structure" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exemplar_table!$A$1:$BM$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">exemplar_table!$A$1:$BM$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9966" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10026" uniqueCount="478">
   <si>
     <t>Albania</t>
   </si>
@@ -3154,28 +3146,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BM152"/>
+  <dimension ref="A1:BM153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="H2:S152"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150:BM150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" customWidth="1"/>
-    <col min="4" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
     <col min="9" max="18" width="7.6640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.6640625" style="2" customWidth="1"/>
     <col min="20" max="65" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="23" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" s="23" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>465</v>
       </c>
@@ -3372,7 +3364,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="39"/>
       <c r="C2" s="18" t="s">
         <v>453</v>
@@ -3564,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="39"/>
       <c r="C3" s="17" t="s">
         <v>452</v>
@@ -3756,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="39"/>
       <c r="C4" s="18" t="s">
         <v>453</v>
@@ -3948,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B5" s="39"/>
       <c r="C5" s="17" t="s">
         <v>452</v>
@@ -4140,7 +4132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="18" t="s">
         <v>288</v>
@@ -4332,7 +4324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B7" s="39"/>
       <c r="C7" s="17" t="s">
         <v>452</v>
@@ -4524,7 +4516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="17" t="s">
         <v>452</v>
@@ -4716,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="39"/>
       <c r="C9" s="18" t="s">
         <v>288</v>
@@ -4908,7 +4900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
       <c r="C10" s="18" t="s">
         <v>453</v>
@@ -5100,7 +5092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
       <c r="C11" s="17" t="s">
         <v>452</v>
@@ -5292,7 +5284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
       <c r="C12" s="17" t="s">
         <v>288</v>
@@ -5484,7 +5476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B13" s="39"/>
       <c r="C13" s="17" t="s">
         <v>452</v>
@@ -5676,7 +5668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="18" t="s">
         <v>453</v>
@@ -5868,7 +5860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="17" t="s">
         <v>452</v>
@@ -6060,7 +6052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="18" t="s">
         <v>287</v>
@@ -6252,7 +6244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="18" t="s">
         <v>453</v>
@@ -6444,7 +6436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
       <c r="C18" s="17" t="s">
         <v>452</v>
@@ -6636,7 +6628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="18" t="s">
         <v>453</v>
@@ -6828,7 +6820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
       <c r="C20" s="18" t="s">
         <v>453</v>
@@ -7020,7 +7012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="39"/>
       <c r="C21" s="18" t="s">
         <v>453</v>
@@ -7212,7 +7204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
       <c r="C22" s="18" t="s">
         <v>453</v>
@@ -7404,7 +7396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="39"/>
       <c r="C23" s="17" t="s">
         <v>452</v>
@@ -7596,7 +7588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
       <c r="C24" s="17" t="s">
         <v>452</v>
@@ -7788,7 +7780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
       <c r="C25" s="17" t="s">
         <v>452</v>
@@ -7980,7 +7972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="39"/>
       <c r="C26" s="17" t="s">
         <v>452</v>
@@ -8172,7 +8164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="18" t="s">
         <v>453</v>
@@ -8364,7 +8356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="39"/>
       <c r="C28" s="18" t="s">
         <v>453</v>
@@ -8556,7 +8548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="39"/>
       <c r="C29" s="18" t="s">
         <v>287</v>
@@ -8748,7 +8740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="39"/>
       <c r="C30" s="18" t="s">
         <v>453</v>
@@ -8940,7 +8932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="39"/>
       <c r="C31" s="18" t="s">
         <v>453</v>
@@ -9132,7 +9124,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
       <c r="C32" s="18" t="s">
         <v>453</v>
@@ -9324,7 +9316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="39"/>
       <c r="C33" s="17" t="s">
         <v>452</v>
@@ -9516,7 +9508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="39"/>
       <c r="C34" s="18" t="s">
         <v>453</v>
@@ -9708,7 +9700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="C35" s="17" t="s">
         <v>452</v>
@@ -9900,7 +9892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="39"/>
       <c r="C36" s="18" t="s">
@@ -10093,7 +10085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="39"/>
       <c r="C37" s="18" t="s">
         <v>453</v>
@@ -10285,7 +10277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
       <c r="C38" s="18" t="s">
         <v>453</v>
@@ -10477,7 +10469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="39"/>
       <c r="C39" s="17" t="s">
         <v>452</v>
@@ -10669,7 +10661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="39"/>
       <c r="C40" s="18" t="s">
         <v>453</v>
@@ -10861,7 +10853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="39"/>
       <c r="C41" s="18" t="s">
         <v>453</v>
@@ -11053,7 +11045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="39"/>
       <c r="C42" s="18" t="s">
         <v>453</v>
@@ -11245,7 +11237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="39"/>
       <c r="C43" s="17" t="s">
         <v>452</v>
@@ -11437,7 +11429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="39"/>
       <c r="C44" s="17" t="s">
         <v>452</v>
@@ -11629,7 +11621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="39"/>
       <c r="C45" s="18" t="s">
@@ -11822,7 +11814,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="39"/>
       <c r="C46" s="18" t="s">
@@ -12015,7 +12007,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B47" s="39"/>
       <c r="C47" s="17" t="s">
         <v>452</v>
@@ -12207,7 +12199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="39"/>
       <c r="C48" s="18" t="s">
         <v>453</v>
@@ -12399,7 +12391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="39"/>
       <c r="C49" s="18" t="s">
         <v>288</v>
@@ -12591,7 +12583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B50" s="39"/>
       <c r="C50" s="17" t="s">
         <v>452</v>
@@ -12783,7 +12775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="39"/>
       <c r="C51" s="18" t="s">
         <v>453</v>
@@ -12975,7 +12967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="39"/>
       <c r="C52" s="18" t="s">
@@ -13168,7 +13160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="39"/>
       <c r="C53" s="17" t="s">
         <v>452</v>
@@ -13360,7 +13352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="39"/>
       <c r="C54" s="18" t="s">
         <v>453</v>
@@ -13552,7 +13544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="39"/>
       <c r="C55" s="18" t="s">
         <v>453</v>
@@ -13744,7 +13736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="39"/>
       <c r="C56" s="18" t="s">
         <v>453</v>
@@ -13936,7 +13928,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="C57" s="18" t="s">
         <v>463</v>
       </c>
@@ -14127,7 +14119,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B58" s="39"/>
       <c r="C58" s="17" t="s">
         <v>452</v>
@@ -14319,7 +14311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="39"/>
       <c r="C59" s="18" t="s">
         <v>453</v>
@@ -14511,7 +14503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B60" s="39"/>
       <c r="C60" s="17" t="s">
         <v>452</v>
@@ -14703,7 +14695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B61" s="39"/>
       <c r="C61" s="17" t="s">
         <v>452</v>
@@ -14895,7 +14887,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B62" s="39"/>
       <c r="C62" s="17" t="s">
         <v>452</v>
@@ -15087,7 +15079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="39"/>
       <c r="C63" s="18" t="s">
         <v>453</v>
@@ -15279,7 +15271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B64" s="39"/>
       <c r="C64" s="17" t="s">
         <v>452</v>
@@ -15471,7 +15463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="39"/>
       <c r="C65" s="17" t="s">
         <v>452</v>
@@ -15663,7 +15655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B66" s="39"/>
       <c r="C66" s="17" t="s">
         <v>452</v>
@@ -15855,7 +15847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="39"/>
       <c r="C67" s="18" t="s">
         <v>453</v>
@@ -16047,7 +16039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B68" s="39"/>
       <c r="C68" s="17" t="s">
         <v>452</v>
@@ -16239,7 +16231,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="39"/>
       <c r="C69" s="18" t="s">
         <v>453</v>
@@ -16431,7 +16423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="39"/>
       <c r="C70" s="17" t="s">
         <v>288</v>
@@ -16623,7 +16615,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:65" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="39"/>
       <c r="C71" s="17" t="s">
@@ -16816,7 +16808,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B72" s="39"/>
       <c r="C72" s="17" t="s">
         <v>452</v>
@@ -17008,7 +17000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="41"/>
       <c r="C73" s="18" t="s">
         <v>287</v>
@@ -17200,7 +17192,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B74" s="39"/>
       <c r="C74" s="17" t="s">
         <v>452</v>
@@ -17392,7 +17384,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="39"/>
       <c r="C75" s="18" t="s">
         <v>288</v>
@@ -17584,7 +17576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="39"/>
       <c r="C76" s="18" t="s">
         <v>288</v>
@@ -17776,7 +17768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="39"/>
       <c r="C77" s="18" t="s">
         <v>453</v>
@@ -17968,7 +17960,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="39"/>
       <c r="C78" s="18" t="s">
         <v>453</v>
@@ -18160,7 +18152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="39"/>
       <c r="C79" s="18" t="s">
         <v>288</v>
@@ -18352,7 +18344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="39"/>
       <c r="C80" s="18" t="s">
         <v>453</v>
@@ -18544,7 +18536,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B81" s="39"/>
       <c r="C81" s="17" t="s">
         <v>452</v>
@@ -18736,7 +18728,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="39"/>
       <c r="C82" s="18" t="s">
@@ -18929,7 +18921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="39"/>
       <c r="C83" s="18" t="s">
         <v>453</v>
@@ -19121,7 +19113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="40"/>
       <c r="C84" s="18" t="s">
@@ -19314,7 +19306,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="85" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="40"/>
       <c r="C85" s="18" t="s">
         <v>453</v>
@@ -19506,7 +19498,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="40"/>
       <c r="C86" s="18" t="s">
         <v>453</v>
@@ -19698,7 +19690,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B87" s="39"/>
       <c r="C87" s="17" t="s">
         <v>452</v>
@@ -19890,7 +19882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="39"/>
       <c r="C88" s="18" t="s">
         <v>453</v>
@@ -20082,7 +20074,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="39"/>
       <c r="C89" s="18" t="s">
         <v>287</v>
@@ -20274,7 +20266,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="39"/>
       <c r="C90" s="17" t="s">
         <v>452</v>
@@ -20466,7 +20458,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="39"/>
       <c r="C91" s="18" t="s">
         <v>453</v>
@@ -20658,7 +20650,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B92" s="39"/>
       <c r="C92" s="17" t="s">
         <v>452</v>
@@ -20850,7 +20842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B93" s="39"/>
       <c r="C93" s="18" t="s">
         <v>453</v>
@@ -21042,7 +21034,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B94" s="39"/>
       <c r="C94" s="18" t="s">
         <v>453</v>
@@ -21234,7 +21226,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B95" s="39"/>
       <c r="C95" s="17" t="s">
         <v>452</v>
@@ -21426,7 +21418,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="39"/>
       <c r="C96" s="18" t="s">
         <v>453</v>
@@ -21618,7 +21610,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B97" s="39"/>
       <c r="C97" s="18" t="s">
         <v>453</v>
@@ -21810,7 +21802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B98" s="39"/>
       <c r="C98" s="18" t="s">
         <v>453</v>
@@ -22002,7 +21994,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B99" s="39"/>
       <c r="C99" s="17" t="s">
         <v>452</v>
@@ -22194,7 +22186,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B100" s="39"/>
       <c r="C100" s="17" t="s">
         <v>452</v>
@@ -22386,7 +22378,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B101" s="39"/>
       <c r="C101" s="17" t="s">
         <v>452</v>
@@ -22578,7 +22570,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="40"/>
       <c r="C102" s="18" t="s">
         <v>453</v>
@@ -22770,7 +22762,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="103" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="40"/>
       <c r="C103" s="18" t="s">
         <v>453</v>
@@ -22962,7 +22954,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="40"/>
       <c r="C104" s="18" t="s">
         <v>453</v>
@@ -23154,7 +23146,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="105" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B105" s="39"/>
       <c r="C105" s="17" t="s">
         <v>452</v>
@@ -23346,7 +23338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="39"/>
       <c r="C106" s="18" t="s">
         <v>453</v>
@@ -23538,7 +23530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="39"/>
       <c r="C107" s="18" t="s">
         <v>453</v>
@@ -23730,7 +23722,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B108" s="39"/>
       <c r="C108" s="17" t="s">
         <v>452</v>
@@ -23922,7 +23914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B109" s="39"/>
       <c r="C109" s="17" t="s">
         <v>452</v>
@@ -24114,7 +24106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B110" s="39"/>
       <c r="C110" s="17" t="s">
         <v>452</v>
@@ -24306,7 +24298,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B111" s="39"/>
       <c r="C111" s="18" t="s">
         <v>453</v>
@@ -24498,7 +24490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B112" s="39"/>
       <c r="C112" s="17" t="s">
         <v>452</v>
@@ -24690,7 +24682,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="39"/>
       <c r="C113" s="17" t="s">
         <v>452</v>
@@ -24882,7 +24874,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="114" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="39"/>
       <c r="C114" s="17" t="s">
         <v>452</v>
@@ -25074,7 +25066,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B115" s="39"/>
       <c r="C115" s="18" t="s">
         <v>288</v>
@@ -25266,7 +25258,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B116" s="39"/>
       <c r="C116" s="18" t="s">
         <v>287</v>
@@ -25458,7 +25450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B117" s="39"/>
       <c r="C117" s="18" t="s">
         <v>453</v>
@@ -25650,7 +25642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B118" s="39"/>
       <c r="C118" s="17" t="s">
         <v>452</v>
@@ -25842,7 +25834,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B119" s="39"/>
       <c r="C119" s="17" t="s">
         <v>288</v>
@@ -26034,7 +26026,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B120" s="39"/>
       <c r="C120" s="17" t="s">
         <v>452</v>
@@ -26226,7 +26218,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B121" s="39"/>
       <c r="C121" s="18" t="s">
         <v>453</v>
@@ -26418,7 +26410,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B122" s="39"/>
       <c r="C122" s="18" t="s">
         <v>287</v>
@@ -26610,7 +26602,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B123" s="39"/>
       <c r="C123" s="17" t="s">
         <v>452</v>
@@ -26802,7 +26794,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="124" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B124" s="39"/>
       <c r="C124" s="18" t="s">
         <v>453</v>
@@ -26994,7 +26986,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B125" s="39"/>
       <c r="C125" s="18" t="s">
         <v>287</v>
@@ -27186,7 +27178,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B126" s="39"/>
       <c r="C126" s="17" t="s">
         <v>452</v>
@@ -27378,7 +27370,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="39"/>
       <c r="C127" s="18" t="s">
@@ -27571,7 +27563,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B128" s="39"/>
       <c r="C128" s="17" t="s">
         <v>452</v>
@@ -27763,7 +27755,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B129" s="39"/>
       <c r="C129" s="18" t="s">
         <v>453</v>
@@ -27955,7 +27947,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B130" s="39"/>
       <c r="C130" s="18" t="s">
         <v>453</v>
@@ -28147,7 +28139,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B131" s="39"/>
       <c r="C131" s="18" t="s">
         <v>453</v>
@@ -28339,7 +28331,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B132" s="39"/>
       <c r="C132" s="17" t="s">
         <v>452</v>
@@ -28531,7 +28523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="133" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B133" s="39"/>
       <c r="C133" s="17" t="s">
         <v>452</v>
@@ -28723,7 +28715,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B134" s="39"/>
       <c r="C134" s="18" t="s">
         <v>453</v>
@@ -28915,7 +28907,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B135" s="39"/>
       <c r="C135" s="18" t="s">
         <v>288</v>
@@ -29107,7 +29099,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B136" s="39"/>
       <c r="C136" s="17" t="s">
         <v>452</v>
@@ -29299,7 +29291,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B137" s="39"/>
       <c r="C137" s="18" t="s">
         <v>453</v>
@@ -29491,7 +29483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B138" s="39"/>
       <c r="C138" s="18" t="s">
         <v>453</v>
@@ -29683,7 +29675,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B139" s="39"/>
       <c r="C139" s="18" t="s">
         <v>453</v>
@@ -29875,7 +29867,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B140" s="39"/>
       <c r="C140" s="17" t="s">
         <v>452</v>
@@ -30067,7 +30059,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B141" s="39"/>
       <c r="C141" s="17" t="s">
         <v>288</v>
@@ -30259,7 +30251,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="2:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B142" s="39"/>
       <c r="C142" s="17" t="s">
         <v>288</v>
@@ -30451,7 +30443,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="143" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B143" s="39"/>
       <c r="C143" s="17" t="s">
         <v>452</v>
@@ -30643,7 +30635,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="2:65" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:65" ht="15" x14ac:dyDescent="0.15">
       <c r="B144" s="39"/>
       <c r="C144" s="17" t="s">
         <v>452</v>
@@ -30835,7 +30827,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:65" ht="15" x14ac:dyDescent="0.2">
       <c r="B145" s="39"/>
       <c r="C145" s="17" t="s">
         <v>452</v>
@@ -31027,7 +31019,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:65" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A146"/>
       <c r="B146" s="39"/>
       <c r="C146" s="17" t="s">
@@ -31220,7 +31212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:65" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" s="39"/>
       <c r="C147" s="18" t="s">
@@ -31413,7 +31405,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="148" spans="1:65" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" s="39"/>
       <c r="C148" s="17" t="s">
@@ -31606,7 +31598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149" spans="1:65" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A149"/>
       <c r="B149" s="39"/>
       <c r="C149" s="17" t="s">
@@ -31799,393 +31791,387 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:65" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A150"/>
       <c r="B150" s="39"/>
-      <c r="C150" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>392</v>
-      </c>
+      <c r="C150" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
       <c r="F150" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="O150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="P150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="R150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="S150" s="2" t="s">
-        <v>259</v>
+        <v>289</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="W150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Y150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Z150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AE150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AG150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AH150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AI150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AJ150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AK150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AM150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AN150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AO150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AP150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AQ150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AS150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AT150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AU150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AV150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AW150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AX150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AY150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AZ150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BA150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BB150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BC150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BD150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BE150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BF150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BG150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BH150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BI150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BJ150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BK150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BL150" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="BM150" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:65" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151" s="39"/>
       <c r="C151" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D151" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>396</v>
+      <c r="D151" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="X151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AE151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AH151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AI151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AJ151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AM151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AO151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AP151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AQ151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AR151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AS151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AT151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AU151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AV151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AW151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AX151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AY151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AZ151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BA151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BB151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BC151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BD151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BE151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BF151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BG151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BH151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BI151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BJ151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BK151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BL151" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BM151" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:65" ht="14.4" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152"/>
       <c r="B152" s="39"/>
       <c r="C152" s="18" t="s">
         <v>453</v>
@@ -32197,190 +32183,382 @@
         <v>396</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="X152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AO152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AX152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BB152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BD152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BK152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BL152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM152" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:65" ht="15" x14ac:dyDescent="0.2">
+      <c r="B153" s="39"/>
+      <c r="C153" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L152" s="2" t="s">
+      <c r="L153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M152" s="2" t="s">
+      <c r="M153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="O152" s="2" t="s">
+      <c r="O153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="P152" s="2" t="s">
+      <c r="P153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Q152" s="2" t="s">
+      <c r="Q153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="R152" s="2" t="s">
+      <c r="R153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S152" s="2" t="s">
+      <c r="S153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="T152" s="2" t="s">
+      <c r="T153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="U152" s="2" t="s">
+      <c r="U153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V152" s="2" t="s">
+      <c r="V153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="W152" s="2" t="s">
+      <c r="W153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="X152" s="2" t="s">
+      <c r="X153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Y152" s="2" t="s">
+      <c r="Y153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Z152" s="2" t="s">
+      <c r="Z153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AA152" s="2" t="s">
+      <c r="AA153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AB152" s="2" t="s">
+      <c r="AB153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AC152" s="2" t="s">
+      <c r="AC153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AD152" s="2" t="s">
+      <c r="AD153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AE152" s="2" t="s">
+      <c r="AE153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AF152" s="2" t="s">
+      <c r="AF153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AG152" s="2" t="s">
+      <c r="AG153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AH152" s="2" t="s">
+      <c r="AH153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AI152" s="2" t="s">
+      <c r="AI153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AJ152" s="2" t="s">
+      <c r="AJ153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AK152" s="2" t="s">
+      <c r="AK153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AL152" s="2" t="s">
+      <c r="AL153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AM152" s="2" t="s">
+      <c r="AM153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AN152" s="2" t="s">
+      <c r="AN153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AO152" s="2" t="s">
+      <c r="AO153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AP152" s="2" t="s">
+      <c r="AP153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AQ152" s="2" t="s">
+      <c r="AQ153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AR152" s="2" t="s">
+      <c r="AR153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AS152" s="2" t="s">
+      <c r="AS153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AT152" s="2" t="s">
+      <c r="AT153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AU152" s="2" t="s">
+      <c r="AU153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AV152" s="2" t="s">
+      <c r="AV153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AW152" s="2" t="s">
+      <c r="AW153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AX152" s="2" t="s">
+      <c r="AX153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AY152" s="2" t="s">
+      <c r="AY153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AZ152" s="2" t="s">
+      <c r="AZ153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BA152" s="2" t="s">
+      <c r="BA153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BB152" s="2" t="s">
+      <c r="BB153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BC152" s="2" t="s">
+      <c r="BC153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BD152" s="2" t="s">
+      <c r="BD153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BE152" s="2" t="s">
+      <c r="BE153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BF152" s="2" t="s">
+      <c r="BF153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BG152" s="2" t="s">
+      <c r="BG153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BH152" s="2" t="s">
+      <c r="BH153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BI152" s="2" t="s">
+      <c r="BI153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BJ152" s="2" t="s">
+      <c r="BJ153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BK152" s="2" t="s">
+      <c r="BK153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BL152" s="2" t="s">
+      <c r="BL153" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="BM152" s="2" t="s">
+      <c r="BM153" s="2" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BM152" xr:uid="{C1D6715D-A869-4B44-A204-10D190D0944C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BM152">
-      <sortCondition ref="F1:F152"/>
+  <autoFilter ref="A1:BM153" xr:uid="{C1D6715D-A869-4B44-A204-10D190D0944C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BM153">
+      <sortCondition ref="F1:F153"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -32397,16 +32575,16 @@
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="4"/>
+    <col min="3" max="3" width="38.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>361</v>
       </c>
@@ -32420,7 +32598,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -32428,7 +32606,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -32436,7 +32614,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -32444,7 +32622,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -32452,7 +32630,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -32460,7 +32638,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -32468,7 +32646,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -32476,7 +32654,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -32484,7 +32662,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -32492,7 +32670,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -32501,7 +32679,7 @@
       </c>
       <c r="C11" s="37"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -32512,7 +32690,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -32523,7 +32701,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -32534,7 +32712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -32545,7 +32723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -32556,7 +32734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -32567,7 +32745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -32578,7 +32756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -32589,7 +32767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -32600,7 +32778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -32611,7 +32789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -32622,7 +32800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -32633,7 +32811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -32644,7 +32822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -32655,7 +32833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -32666,7 +32844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -32677,7 +32855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -32688,7 +32866,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -32699,7 +32877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -32710,7 +32888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -32721,7 +32899,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -32732,7 +32910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -32743,7 +32921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -32754,7 +32932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -32765,7 +32943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -32776,7 +32954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -32787,7 +32965,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -32798,7 +32976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -32809,7 +32987,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -32820,7 +32998,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -32831,7 +33009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -32842,7 +33020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -32853,7 +33031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -32864,7 +33042,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -32875,7 +33053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -32886,7 +33064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -32897,7 +33075,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -32908,7 +33086,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -32919,7 +33097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -32930,7 +33108,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -32941,7 +33119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -32952,7 +33130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -32963,7 +33141,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -32974,7 +33152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -32985,7 +33163,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -32996,7 +33174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -33007,7 +33185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -33018,7 +33196,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -33029,7 +33207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -33040,7 +33218,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -33051,7 +33229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -33062,7 +33240,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -33073,7 +33251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -33084,7 +33262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -33095,7 +33273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -33106,7 +33284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -33117,7 +33295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -33128,7 +33306,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -33139,7 +33317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -33150,7 +33328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -33161,7 +33339,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -33172,7 +33350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -33183,7 +33361,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -33194,7 +33372,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -33205,7 +33383,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -33216,7 +33394,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -33227,7 +33405,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -33238,7 +33416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -33249,7 +33427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -33260,7 +33438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -33271,7 +33449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -33282,7 +33460,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -33293,7 +33471,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -33304,7 +33482,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -33315,7 +33493,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -33326,7 +33504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -33337,7 +33515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -33348,7 +33526,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -33359,7 +33537,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -33370,7 +33548,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -33381,7 +33559,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -33392,7 +33570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -33403,7 +33581,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -33414,7 +33592,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -33425,7 +33603,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -33436,7 +33614,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -33447,7 +33625,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -33458,7 +33636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -33469,7 +33647,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -33480,7 +33658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -33491,7 +33669,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -33502,7 +33680,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -33513,7 +33691,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -33524,7 +33702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -33535,7 +33713,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -33546,7 +33724,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -33557,7 +33735,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -33568,7 +33746,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -33579,7 +33757,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -33590,7 +33768,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -33601,7 +33779,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -33612,7 +33790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -33623,7 +33801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -33634,7 +33812,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -33645,7 +33823,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -33656,7 +33834,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -33667,7 +33845,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -33678,7 +33856,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -33689,7 +33867,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -33700,7 +33878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -33711,7 +33889,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -33722,7 +33900,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -33733,7 +33911,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -33744,7 +33922,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -33755,7 +33933,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -33766,7 +33944,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -33777,7 +33955,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -33788,7 +33966,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -33799,7 +33977,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -33810,7 +33988,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -33821,7 +33999,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -33832,7 +34010,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -33843,7 +34021,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -33854,7 +34032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -33865,7 +34043,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -33876,7 +34054,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -33887,7 +34065,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -33898,7 +34076,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -33909,7 +34087,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -33920,7 +34098,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -33931,7 +34109,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -33942,7 +34120,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -33953,7 +34131,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -33964,7 +34142,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -33975,7 +34153,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -33986,7 +34164,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -33997,7 +34175,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -34008,7 +34186,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -34019,7 +34197,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -34030,7 +34208,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -34041,7 +34219,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -34052,7 +34230,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -34063,7 +34241,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -34074,7 +34252,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -34085,7 +34263,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -34096,7 +34274,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -34107,7 +34285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -34118,7 +34296,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -34129,7 +34307,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -34140,7 +34318,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -34151,7 +34329,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -34160,7 +34338,7 @@
       </c>
       <c r="C162" s="10"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -34171,7 +34349,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -34180,7 +34358,7 @@
       </c>
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -34189,7 +34367,7 @@
       </c>
       <c r="C165" s="10"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -34200,7 +34378,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -34211,7 +34389,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -34223,7 +34401,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -34235,7 +34413,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -34247,7 +34425,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -34259,7 +34437,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -34271,7 +34449,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -34279,7 +34457,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -34287,7 +34465,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -34295,7 +34473,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -34303,7 +34481,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -34311,7 +34489,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -34319,7 +34497,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -34327,7 +34505,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -34335,7 +34513,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -34343,7 +34521,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -34351,7 +34529,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -34359,7 +34537,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -34381,15 +34559,15 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="N2" s="25" t="s">
         <v>394</v>
       </c>
@@ -34400,7 +34578,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="43" t="s">
         <v>369</v>
       </c>
@@ -34423,7 +34601,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="46"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -34442,7 +34620,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -34461,7 +34639,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N6" s="2" t="s">
         <v>283</v>
       </c>
@@ -34472,7 +34650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>370</v>
       </c>
@@ -34490,8 +34668,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B9" s="43" t="s">
         <v>371</v>
       </c>
@@ -34505,7 +34683,7 @@
       <c r="J9" s="53"/>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
@@ -34515,7 +34693,7 @@
       <c r="J10" s="56"/>
       <c r="K10" s="57"/>
     </row>
-    <row r="11" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
@@ -34525,13 +34703,13 @@
       <c r="J11" s="59"/>
       <c r="K11" s="60"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="62" t="s">
         <v>380</v>
       </c>
@@ -34542,13 +34720,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
@@ -34560,13 +34738,13 @@
       <c r="J15" s="53"/>
       <c r="K15" s="54"/>
     </row>
-    <row r="16" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H16" s="55"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="43" t="s">
         <v>381</v>
       </c>
@@ -34578,13 +34756,13 @@
       <c r="J17" s="59"/>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="E18" s="48"/>
     </row>
-    <row r="19" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -34593,8 +34771,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>382</v>
       </c>
@@ -34605,13 +34783,13 @@
       <c r="J21" s="53"/>
       <c r="K21" s="54"/>
     </row>
-    <row r="22" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H22" s="55"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="43" t="s">
         <v>383</v>
       </c>
@@ -34623,13 +34801,13 @@
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="48"/>
     </row>
-    <row r="25" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -34638,7 +34816,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="61" t="s">
         <v>384</v>
       </c>
@@ -34646,19 +34824,19 @@
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="61" t="s">
         <v>385</v>
       </c>
@@ -34666,20 +34844,20 @@
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
     </row>
-    <row r="34" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="43" t="s">
         <v>386</v>
       </c>
@@ -34687,13 +34865,13 @@
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="E36" s="48"/>
     </row>
-    <row r="37" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
       <c r="D37" s="50"/>
@@ -34728,15 +34906,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="88.77734375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="27"/>
+    <col min="2" max="2" width="88.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>400</v>
       </c>
@@ -34747,7 +34925,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>281</v>
       </c>
@@ -34758,7 +34936,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>404</v>
       </c>
@@ -34769,7 +34947,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
@@ -34780,7 +34958,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>37</v>
       </c>
@@ -34791,7 +34969,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>410</v>
       </c>
@@ -34802,7 +34980,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
         <v>412</v>
       </c>
@@ -34813,7 +34991,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>70</v>
       </c>
@@ -34824,7 +35002,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>273</v>
       </c>
@@ -34835,7 +35013,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>151</v>
       </c>
@@ -34846,7 +35024,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>153</v>
       </c>
@@ -34857,7 +35035,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>161</v>
       </c>
@@ -34868,7 +35046,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
         <v>421</v>
       </c>
@@ -34879,7 +35057,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>172</v>
       </c>
@@ -34890,7 +35068,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
         <v>426</v>
       </c>
@@ -34901,7 +35079,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
         <v>219</v>
       </c>
@@ -34912,7 +35090,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
         <v>429</v>
       </c>
@@ -34923,7 +35101,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
         <v>432</v>
       </c>
@@ -34934,7 +35112,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>435</v>
       </c>
@@ -34945,7 +35123,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>443</v>
       </c>
@@ -34956,7 +35134,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>444</v>
       </c>
@@ -34980,19 +35158,19 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -35011,7 +35189,7 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -35030,7 +35208,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -35049,7 +35227,7 @@
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -35068,7 +35246,7 @@
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -35087,7 +35265,7 @@
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -35106,7 +35284,7 @@
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -35125,7 +35303,7 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -35144,7 +35322,7 @@
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -35163,7 +35341,7 @@
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -35182,7 +35360,7 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -35201,7 +35379,7 @@
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -35220,7 +35398,7 @@
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -35246,6 +35424,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060B7F65646EC444FB25DA4F5E743F4A7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f076e5527b1f1957b74e8a9e048be81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="77d41baf-5ecc-4842-ba36-0ed33caf7049" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="626007ce907977db909c72728f6668c7" ns3:_="">
     <xsd:import namespace="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
@@ -35391,7 +35575,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -35400,13 +35584,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F7A5DA-1B98-4A64-9D1E-26B3B73D80C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA1D15D9-8398-4015-A6D6-79D5997F5C5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35424,26 +35618,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F7A5DA-1B98-4A64-9D1E-26B3B73D80C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/Exemplar_Table.xlsx
+++ b/inst/extdata/Exemplar_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Dropbox/Fellowship 1960-2015 PFU database/Database plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/SEAPSUTWorkflow/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDDC56-3500-9546-894C-9DBB685F4134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE6FBC6-AE50-1445-BC99-AB383C792E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48280" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10026" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10026" uniqueCount="479">
   <si>
     <t>Albania</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>FEB</t>
+  </si>
+  <si>
+    <t>WLD</t>
   </si>
 </sst>
 </file>
@@ -2233,6 +2236,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2286,9 +2292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3148,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BM153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H150" sqref="H150:BM150"/>
     </sheetView>
@@ -31803,178 +31806,178 @@
         <v>289</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="W150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="X150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="Y150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="Z150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AE150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AG150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AH150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AI150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AJ150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AK150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AM150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AN150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AO150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AP150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AQ150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AS150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AT150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AU150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AV150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AW150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AX150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AY150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="AZ150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BA150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BB150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BC150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BD150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BE150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BF150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BG150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BH150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BI150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BJ150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BK150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BL150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
       <c r="BM150" s="1" t="s">
-        <v>289</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:65" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -34579,18 +34582,18 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="H3" s="52" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="H3" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
       <c r="N3" s="2" t="s">
         <v>282</v>
       </c>
@@ -34602,14 +34605,14 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
       <c r="N4" s="2" t="s">
         <v>284</v>
       </c>
@@ -34621,14 +34624,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
       <c r="N5" s="2" t="s">
         <v>285</v>
       </c>
@@ -34670,38 +34673,38 @@
     </row>
     <row r="8" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="H9" s="52" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="H9" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
@@ -34731,42 +34734,42 @@
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="H19" t="s">
         <v>376</v>
       </c>
@@ -34776,109 +34779,114 @@
       <c r="B21" t="s">
         <v>382</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55"/>
     </row>
     <row r="22" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
       <c r="H25" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="H9:K11"/>
+    <mergeCell ref="B27:E29"/>
     <mergeCell ref="B31:E33"/>
     <mergeCell ref="B35:E37"/>
     <mergeCell ref="H15:K17"/>
@@ -34886,11 +34894,6 @@
     <mergeCell ref="B13:E15"/>
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="B23:E25"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="B27:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35424,9 +35427,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35576,26 +35582,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F7A5DA-1B98-4A64-9D1E-26B3B73D80C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35619,9 +35614,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F7A5DA-1B98-4A64-9D1E-26B3B73D80C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/Exemplar_Table.xlsx
+++ b/inst/extdata/Exemplar_Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earzm\Documents\Github\SEAPSUTWorkflow\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/PFUWorkflow/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C253026D-BFB1-BC48-B8C9-540CE16C73D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="48285" windowHeight="28335"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exemplar_table" sheetId="5" r:id="rId1"/>
@@ -1354,13 +1355,13 @@
     <t>FEB</t>
   </si>
   <si>
-    <t>WLD</t>
+    <t>WRLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2025,7 +2026,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2122,6 +2123,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2176,11 +2180,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3034,26 +3041,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="2" customWidth="1"/>
-    <col min="16" max="61" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="14" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="2" customWidth="1"/>
+    <col min="16" max="61" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="23" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>428</v>
       </c>
@@ -3247,7 +3254,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>421</v>
       </c>
@@ -3441,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>420</v>
       </c>
@@ -3635,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>421</v>
       </c>
@@ -3829,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>420</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>257</v>
       </c>
@@ -4217,7 +4224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>420</v>
       </c>
@@ -4411,7 +4418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>420</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>257</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>421</v>
       </c>
@@ -4993,7 +5000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>420</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>257</v>
       </c>
@@ -5381,7 +5388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>420</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>421</v>
       </c>
@@ -5769,7 +5776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>420</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>256</v>
       </c>
@@ -6157,7 +6164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>421</v>
       </c>
@@ -6351,7 +6358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>420</v>
       </c>
@@ -6545,7 +6552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>421</v>
       </c>
@@ -6739,7 +6746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>421</v>
       </c>
@@ -6933,7 +6940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>421</v>
       </c>
@@ -7127,7 +7134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>421</v>
       </c>
@@ -7321,7 +7328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>420</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>420</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
         <v>420</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>420</v>
       </c>
@@ -8097,7 +8104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>421</v>
       </c>
@@ -8291,7 +8298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>421</v>
       </c>
@@ -8485,7 +8492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>256</v>
       </c>
@@ -8679,7 +8686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>421</v>
       </c>
@@ -8873,7 +8880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>421</v>
       </c>
@@ -9067,7 +9074,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>421</v>
       </c>
@@ -9261,7 +9268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>420</v>
       </c>
@@ -9455,7 +9462,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>421</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>420</v>
       </c>
@@ -9843,7 +9850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>421</v>
       </c>
@@ -10037,7 +10044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>421</v>
       </c>
@@ -10231,7 +10238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>421</v>
       </c>
@@ -10425,7 +10432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
         <v>420</v>
       </c>
@@ -10619,7 +10626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>421</v>
       </c>
@@ -10813,7 +10820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>421</v>
       </c>
@@ -11007,7 +11014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>421</v>
       </c>
@@ -11201,7 +11208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>420</v>
       </c>
@@ -11395,7 +11402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>420</v>
       </c>
@@ -11589,7 +11596,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>257</v>
       </c>
@@ -11783,7 +11790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>256</v>
       </c>
@@ -11977,7 +11984,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="17" t="s">
         <v>420</v>
       </c>
@@ -12171,7 +12178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>421</v>
       </c>
@@ -12365,7 +12372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>257</v>
       </c>
@@ -12559,7 +12566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
         <v>420</v>
       </c>
@@ -12753,7 +12760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>421</v>
       </c>
@@ -12947,7 +12954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>421</v>
       </c>
@@ -13141,7 +13148,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>420</v>
       </c>
@@ -13335,7 +13342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>421</v>
       </c>
@@ -13529,7 +13536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>421</v>
       </c>
@@ -13723,7 +13730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>421</v>
       </c>
@@ -13917,7 +13924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>429</v>
       </c>
@@ -14111,7 +14118,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
         <v>420</v>
       </c>
@@ -14305,7 +14312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>421</v>
       </c>
@@ -14499,7 +14506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>420</v>
       </c>
@@ -14693,7 +14700,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
         <v>420</v>
       </c>
@@ -14887,7 +14894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
         <v>420</v>
       </c>
@@ -15081,7 +15088,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>421</v>
       </c>
@@ -15275,7 +15282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
         <v>420</v>
       </c>
@@ -15469,7 +15476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>420</v>
       </c>
@@ -15663,7 +15670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>420</v>
       </c>
@@ -15857,7 +15864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>421</v>
       </c>
@@ -16051,7 +16058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>420</v>
       </c>
@@ -16245,7 +16252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>421</v>
       </c>
@@ -16439,7 +16446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>257</v>
       </c>
@@ -16633,7 +16640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>420</v>
       </c>
@@ -16827,7 +16834,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
         <v>420</v>
       </c>
@@ -17021,7 +17028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>256</v>
       </c>
@@ -17215,7 +17222,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
         <v>420</v>
       </c>
@@ -17409,7 +17416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>257</v>
       </c>
@@ -17603,7 +17610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>257</v>
       </c>
@@ -17797,7 +17804,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>421</v>
       </c>
@@ -17991,7 +17998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>421</v>
       </c>
@@ -18185,7 +18192,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>257</v>
       </c>
@@ -18379,7 +18386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>421</v>
       </c>
@@ -18573,7 +18580,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="17" t="s">
         <v>420</v>
       </c>
@@ -18767,7 +18774,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>421</v>
       </c>
@@ -18961,7 +18968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>421</v>
       </c>
@@ -19155,7 +19162,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>421</v>
       </c>
@@ -19349,7 +19356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>421</v>
       </c>
@@ -19543,7 +19550,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
         <v>421</v>
       </c>
@@ -19737,7 +19744,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="17" t="s">
         <v>420</v>
       </c>
@@ -19931,7 +19938,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>421</v>
       </c>
@@ -20125,7 +20132,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>256</v>
       </c>
@@ -20319,7 +20326,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>420</v>
       </c>
@@ -20513,7 +20520,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>421</v>
       </c>
@@ -20707,7 +20714,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="17" t="s">
         <v>420</v>
       </c>
@@ -20901,7 +20908,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>421</v>
       </c>
@@ -21095,7 +21102,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>421</v>
       </c>
@@ -21289,7 +21296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="17" t="s">
         <v>420</v>
       </c>
@@ -21483,7 +21490,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>421</v>
       </c>
@@ -21677,7 +21684,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>421</v>
       </c>
@@ -21871,7 +21878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>421</v>
       </c>
@@ -22065,7 +22072,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="17" t="s">
         <v>420</v>
       </c>
@@ -22259,7 +22266,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="17" t="s">
         <v>420</v>
       </c>
@@ -22453,7 +22460,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="17" t="s">
         <v>420</v>
       </c>
@@ -22647,7 +22654,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>421</v>
       </c>
@@ -22841,7 +22848,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>421</v>
       </c>
@@ -23035,7 +23042,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>421</v>
       </c>
@@ -23229,7 +23236,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
         <v>420</v>
       </c>
@@ -23423,7 +23430,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>421</v>
       </c>
@@ -23617,7 +23624,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>421</v>
       </c>
@@ -23811,7 +23818,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="17" t="s">
         <v>420</v>
       </c>
@@ -24005,7 +24012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="17" t="s">
         <v>420</v>
       </c>
@@ -24199,7 +24206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>420</v>
       </c>
@@ -24393,7 +24400,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>421</v>
       </c>
@@ -24587,7 +24594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="17" t="s">
         <v>420</v>
       </c>
@@ -24781,7 +24788,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
         <v>420</v>
       </c>
@@ -24975,7 +24982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
         <v>420</v>
       </c>
@@ -25169,7 +25176,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>257</v>
       </c>
@@ -25363,7 +25370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>256</v>
       </c>
@@ -25557,7 +25564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>421</v>
       </c>
@@ -25751,7 +25758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
         <v>420</v>
       </c>
@@ -25945,7 +25952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
         <v>257</v>
       </c>
@@ -26139,7 +26146,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="17" t="s">
         <v>420</v>
       </c>
@@ -26333,7 +26340,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>421</v>
       </c>
@@ -26527,7 +26534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>256</v>
       </c>
@@ -26721,7 +26728,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
         <v>420</v>
       </c>
@@ -26915,7 +26922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>421</v>
       </c>
@@ -27109,7 +27116,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>256</v>
       </c>
@@ -27303,7 +27310,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A126" s="17" t="s">
         <v>420</v>
       </c>
@@ -27497,7 +27504,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>421</v>
       </c>
@@ -27691,7 +27698,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A128" s="17" t="s">
         <v>420</v>
       </c>
@@ -27885,7 +27892,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>421</v>
       </c>
@@ -28079,7 +28086,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>421</v>
       </c>
@@ -28273,7 +28280,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="131" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>421</v>
       </c>
@@ -28467,7 +28474,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
         <v>420</v>
       </c>
@@ -28661,7 +28668,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
         <v>420</v>
       </c>
@@ -28855,7 +28862,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="134" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>421</v>
       </c>
@@ -29049,7 +29056,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>257</v>
       </c>
@@ -29243,7 +29250,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A136" s="17" t="s">
         <v>420</v>
       </c>
@@ -29437,7 +29444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>421</v>
       </c>
@@ -29631,7 +29638,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="138" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>421</v>
       </c>
@@ -29825,7 +29832,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="139" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>421</v>
       </c>
@@ -30019,7 +30026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A140" s="17" t="s">
         <v>420</v>
       </c>
@@ -30213,7 +30220,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="141" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A141" s="17" t="s">
         <v>257</v>
       </c>
@@ -30407,7 +30414,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>257</v>
       </c>
@@ -30601,7 +30608,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="143" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A143" s="17" t="s">
         <v>420</v>
       </c>
@@ -30795,7 +30802,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:64" ht="15" x14ac:dyDescent="0.15">
       <c r="A144" s="17" t="s">
         <v>420</v>
       </c>
@@ -30989,7 +30996,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="145" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>420</v>
       </c>
@@ -31183,7 +31190,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A146" s="17" t="s">
         <v>420</v>
       </c>
@@ -31377,7 +31384,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>421</v>
       </c>
@@ -31571,7 +31578,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="148" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
         <v>257</v>
       </c>
@@ -31765,7 +31772,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A149" s="17" t="s">
         <v>420</v>
       </c>
@@ -31959,201 +31966,201 @@
         <v>240</v>
       </c>
     </row>
-    <row r="150" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A150" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="K150" s="1" t="s">
+      <c r="K150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="L150" s="1" t="s">
+      <c r="L150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="M150" s="1" t="s">
+      <c r="M150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="N150" s="1" t="s">
+      <c r="N150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="O150" s="1" t="s">
+      <c r="O150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="P150" s="1" t="s">
+      <c r="P150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="Q150" s="1" t="s">
+      <c r="Q150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="R150" s="1" t="s">
+      <c r="R150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="S150" s="1" t="s">
+      <c r="S150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="T150" s="1" t="s">
+      <c r="T150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="U150" s="1" t="s">
+      <c r="U150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="V150" s="1" t="s">
+      <c r="V150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="W150" s="1" t="s">
+      <c r="W150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="X150" s="1" t="s">
+      <c r="X150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="Y150" s="1" t="s">
+      <c r="Y150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="Z150" s="1" t="s">
+      <c r="Z150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AA150" s="1" t="s">
+      <c r="AA150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AB150" s="1" t="s">
+      <c r="AB150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AC150" s="1" t="s">
+      <c r="AC150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AD150" s="1" t="s">
+      <c r="AD150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AE150" s="1" t="s">
+      <c r="AE150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AF150" s="1" t="s">
+      <c r="AF150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AG150" s="1" t="s">
+      <c r="AG150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AH150" s="1" t="s">
+      <c r="AH150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AI150" s="1" t="s">
+      <c r="AI150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AJ150" s="1" t="s">
+      <c r="AJ150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AK150" s="1" t="s">
+      <c r="AK150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AL150" s="1" t="s">
+      <c r="AL150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AM150" s="1" t="s">
+      <c r="AM150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AN150" s="1" t="s">
+      <c r="AN150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AO150" s="1" t="s">
+      <c r="AO150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AP150" s="1" t="s">
+      <c r="AP150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AQ150" s="1" t="s">
+      <c r="AQ150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AR150" s="1" t="s">
+      <c r="AR150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AS150" s="1" t="s">
+      <c r="AS150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AT150" s="1" t="s">
+      <c r="AT150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AU150" s="1" t="s">
+      <c r="AU150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AV150" s="1" t="s">
+      <c r="AV150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AW150" s="1" t="s">
+      <c r="AW150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AX150" s="1" t="s">
+      <c r="AX150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AY150" s="1" t="s">
+      <c r="AY150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="AZ150" s="1" t="s">
+      <c r="AZ150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BA150" s="1" t="s">
+      <c r="BA150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BB150" s="1" t="s">
+      <c r="BB150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BC150" s="1" t="s">
+      <c r="BC150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BD150" s="1" t="s">
+      <c r="BD150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BE150" s="1" t="s">
+      <c r="BE150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BF150" s="1" t="s">
+      <c r="BF150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BG150" s="1" t="s">
+      <c r="BG150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BH150" s="1" t="s">
+      <c r="BH150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BI150" s="1" t="s">
+      <c r="BI150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BJ150" s="1" t="s">
+      <c r="BJ150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BK150" s="1" t="s">
+      <c r="BK150" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="BL150" s="1" t="s">
+      <c r="BL150" s="60" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="151" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>421</v>
       </c>
@@ -32347,7 +32354,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>421</v>
       </c>
@@ -32541,7 +32548,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:64" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:64" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>421</v>
       </c>
@@ -32736,7 +32743,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI153"/>
+  <autoFilter ref="A1:BI153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32744,23 +32751,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView topLeftCell="A119" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="38.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>330</v>
       </c>
@@ -32774,7 +32781,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -32782,7 +32789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -32790,7 +32797,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -32798,7 +32805,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -32806,7 +32813,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -32814,7 +32821,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -32822,7 +32829,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -32830,7 +32837,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -32838,7 +32845,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -32846,7 +32853,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -32855,7 +32862,7 @@
       </c>
       <c r="C11" s="37"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -32866,7 +32873,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -32877,7 +32884,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -32888,7 +32895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -32899,7 +32906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -32910,7 +32917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -32921,7 +32928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -32932,7 +32939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -32943,7 +32950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -32954,7 +32961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -32965,7 +32972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -32976,7 +32983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -32987,7 +32994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -32998,7 +33005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -33009,7 +33016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -33020,7 +33027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -33031,7 +33038,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -33042,7 +33049,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -33053,7 +33060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -33064,7 +33071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -33075,7 +33082,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -33086,7 +33093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -33097,7 +33104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -33108,7 +33115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -33119,7 +33126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -33130,7 +33137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -33141,7 +33148,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -33152,7 +33159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -33163,7 +33170,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -33174,7 +33181,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -33185,7 +33192,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -33196,7 +33203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -33207,7 +33214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -33218,7 +33225,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -33229,7 +33236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -33240,7 +33247,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -33251,7 +33258,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -33262,7 +33269,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -33273,7 +33280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -33284,7 +33291,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -33295,7 +33302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -33306,7 +33313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -33317,7 +33324,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -33328,7 +33335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -33339,7 +33346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -33350,7 +33357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -33361,7 +33368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -33372,7 +33379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -33383,7 +33390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -33394,7 +33401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -33405,7 +33412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -33416,7 +33423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -33427,7 +33434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -33438,7 +33445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -33449,7 +33456,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -33460,7 +33467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -33471,7 +33478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -33482,7 +33489,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -33493,7 +33500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -33504,7 +33511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -33515,7 +33522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -33526,7 +33533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -33537,7 +33544,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -33548,7 +33555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -33559,7 +33566,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -33570,7 +33577,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -33581,7 +33588,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -33592,7 +33599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -33603,7 +33610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -33614,7 +33621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -33625,7 +33632,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -33636,7 +33643,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -33647,7 +33654,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -33658,7 +33665,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -33669,7 +33676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -33680,7 +33687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -33691,7 +33698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -33702,7 +33709,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -33713,7 +33720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -33724,7 +33731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -33735,7 +33742,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -33746,7 +33753,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -33757,7 +33764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -33768,7 +33775,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -33779,7 +33786,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -33790,7 +33797,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -33801,7 +33808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -33812,7 +33819,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -33823,7 +33830,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -33834,7 +33841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -33845,7 +33852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -33856,7 +33863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -33867,7 +33874,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -33878,7 +33885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -33889,7 +33896,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -33900,7 +33907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -33911,7 +33918,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -33922,7 +33929,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -33933,7 +33940,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -33944,7 +33951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -33955,7 +33962,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -33966,7 +33973,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -33977,7 +33984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -33988,7 +33995,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -33999,7 +34006,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -34010,7 +34017,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -34021,7 +34028,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -34032,7 +34039,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -34043,7 +34050,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -34054,7 +34061,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -34065,7 +34072,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -34076,7 +34083,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -34087,7 +34094,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -34098,7 +34105,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -34109,7 +34116,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -34120,7 +34127,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -34131,7 +34138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -34142,7 +34149,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -34153,7 +34160,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -34164,7 +34171,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -34175,7 +34182,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -34186,7 +34193,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -34197,7 +34204,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -34208,7 +34215,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -34219,7 +34226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -34230,7 +34237,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -34241,7 +34248,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -34252,7 +34259,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -34263,7 +34270,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -34274,7 +34281,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -34285,7 +34292,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -34296,7 +34303,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -34307,7 +34314,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -34318,7 +34325,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -34329,7 +34336,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -34340,7 +34347,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -34351,7 +34358,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -34362,7 +34369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -34373,7 +34380,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -34384,7 +34391,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -34395,7 +34402,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -34406,7 +34413,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -34417,7 +34424,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -34428,7 +34435,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -34439,7 +34446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -34450,7 +34457,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -34461,7 +34468,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -34472,7 +34479,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -34483,7 +34490,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -34494,7 +34501,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -34505,7 +34512,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -34514,7 +34521,7 @@
       </c>
       <c r="C162" s="10"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -34525,7 +34532,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -34534,7 +34541,7 @@
       </c>
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -34543,7 +34550,7 @@
       </c>
       <c r="C165" s="10"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -34554,7 +34561,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -34565,7 +34572,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -34577,7 +34584,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -34589,7 +34596,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -34601,7 +34608,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -34613,7 +34620,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -34625,7 +34632,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -34633,7 +34640,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -34641,7 +34648,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -34649,7 +34656,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -34657,7 +34664,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -34665,7 +34672,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -34673,7 +34680,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -34681,7 +34688,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -34689,7 +34696,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -34697,7 +34704,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -34705,7 +34712,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -34713,7 +34720,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -34728,22 +34735,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="N2" s="25" t="s">
         <v>363</v>
       </c>
@@ -34754,19 +34761,19 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="H3" s="49" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="H3" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="N3" s="2" t="s">
         <v>251</v>
       </c>
@@ -34777,15 +34784,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
       <c r="N4" s="2" t="s">
         <v>253</v>
       </c>
@@ -34796,15 +34803,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
+    <row r="5" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
       <c r="N5" s="2" t="s">
         <v>254</v>
       </c>
@@ -34815,7 +34822,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N6" s="2" t="s">
         <v>252</v>
       </c>
@@ -34826,7 +34833,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>339</v>
       </c>
@@ -34844,48 +34851,48 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+    <row r="8" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="H9" s="49" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="H9" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="2:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="59" t="s">
         <v>349</v>
       </c>
@@ -34896,165 +34903,170 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-    </row>
-    <row r="16" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
       <c r="H19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-    </row>
-    <row r="22" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
+    </row>
+    <row r="23" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="2:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="H25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="58" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-    </row>
-    <row r="34" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="2:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:E5"/>
+    <mergeCell ref="B9:E11"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="H9:K11"/>
+    <mergeCell ref="B27:E29"/>
     <mergeCell ref="B31:E33"/>
     <mergeCell ref="B35:E37"/>
     <mergeCell ref="H15:K17"/>
@@ -35062,11 +35074,6 @@
     <mergeCell ref="B13:E15"/>
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="B23:E25"/>
-    <mergeCell ref="B3:E5"/>
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="B27:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35075,22 +35082,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="88.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="25.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="88.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>369</v>
       </c>
@@ -35101,7 +35108,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>250</v>
       </c>
@@ -35112,7 +35119,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>373</v>
       </c>
@@ -35123,7 +35130,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
@@ -35134,7 +35141,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>35</v>
       </c>
@@ -35145,7 +35152,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>379</v>
       </c>
@@ -35156,7 +35163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
         <v>381</v>
       </c>
@@ -35167,7 +35174,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>64</v>
       </c>
@@ -35178,7 +35185,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>248</v>
       </c>
@@ -35189,7 +35196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>145</v>
       </c>
@@ -35200,7 +35207,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>147</v>
       </c>
@@ -35211,7 +35218,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>155</v>
       </c>
@@ -35222,7 +35229,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
         <v>390</v>
       </c>
@@ -35233,7 +35240,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>165</v>
       </c>
@@ -35244,7 +35251,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
         <v>395</v>
       </c>
@@ -35255,7 +35262,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
         <v>208</v>
       </c>
@@ -35266,7 +35273,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
         <v>398</v>
       </c>
@@ -35277,7 +35284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
         <v>401</v>
       </c>
@@ -35288,7 +35295,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>404</v>
       </c>
@@ -35299,7 +35306,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>412</v>
       </c>
@@ -35310,7 +35317,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>413</v>
       </c>
@@ -35327,26 +35334,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -35365,7 +35372,7 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -35384,7 +35391,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -35403,7 +35410,7 @@
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -35422,7 +35429,7 @@
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -35441,7 +35448,7 @@
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -35460,7 +35467,7 @@
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -35479,7 +35486,7 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -35498,7 +35505,7 @@
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -35517,7 +35524,7 @@
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -35536,7 +35543,7 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -35555,7 +35562,7 @@
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -35574,7 +35581,7 @@
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -35606,6 +35613,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060B7F65646EC444FB25DA4F5E743F4A7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f076e5527b1f1957b74e8a9e048be81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="77d41baf-5ecc-4842-ba36-0ed33caf7049" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="626007ce907977db909c72728f6668c7" ns3:_="">
     <xsd:import namespace="77d41baf-5ecc-4842-ba36-0ed33caf7049"/>
@@ -35751,15 +35767,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F7A5DA-1B98-4A64-9D1E-26B3B73D80C1}">
   <ds:schemaRefs>
@@ -35777,6 +35784,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA1D15D9-8398-4015-A6D6-79D5997F5C5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35792,12 +35807,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828852AD-0200-491F-83D2-C0A0FDC8BB33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>